--- a/文書/04.詳細設計書/【Kai9Auto】キーワードマスタ.xlsx
+++ b/文書/04.詳細設計書/【Kai9Auto】キーワードマスタ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\OneDrive\work\36.React\10.github\03.auto\02.java\文書\04.詳細設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d30bd01ee33075e8/work/25.java/06.Kai9Auto/文書/04.詳細設計書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA5F9925-BC4B-4C84-BAEB-CD3FEC73EEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="203" documentId="13_ncr:1_{6EBDF3EA-FFB8-4D64-B236-F18C0FA158EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF539B26-531D-4501-8F48-D2CDCCB9EDC7}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{1BA9B4BF-AB99-4A70-AF72-6F5689D32E87}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="478">
   <si>
     <t>-</t>
     <phoneticPr fontId="4"/>
@@ -2217,10 +2217,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>第１引数：URL</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>web_SetPageSize</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -2469,6 +2465,27 @@
       <t>テイシ</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>som</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DiskCapacityCheck</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[som]ディスク空き容量確認</t>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヨウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>フォルダ作成</t>
@@ -4126,6 +4143,67 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>[som]Teams書込</t>
+    <rPh sb="10" eb="12">
+      <t>カキコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SOM_TeamsWrite</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[som]パッチ適用ジョブ実行結果確認</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[som]パッチ適用結果確認</t>
+    <rPh sb="8" eb="10">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>[som]パッチ適用結果通知</t>
+    <rPh sb="8" eb="10">
+      <t>テキヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツウチ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SOM_PatchApplyingJobExecutionResultCheck</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SOM_PatchApplyingResultCheck</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SOM_PatchApplyingResultNotification</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>WSUSサーバ(server_pk)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>AJSマネージャサーバ(server_pk)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
     <t>シンボリックリンク作成</t>
     <rPh sb="9" eb="11">
       <t>サクセイ</t>
@@ -4151,6 +4229,63 @@
   <si>
     <t>TableExportExcelKw</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※optionalParam
+ジョブパス(カンマ区切りで複数指定可)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>※optionalParam
+対象サーバPK(カンマ区切りで複数指定可)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第二引数ではなくoptionalParam</t>
+    <rPh sb="0" eb="2">
+      <t>ダイニ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒキスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>[som]winrm疎通</t>
+    <rPh sb="10" eb="12">
+      <t>ソツウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>SOM_WinrmConnectivity</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>server_pk</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>第１引数：URL
+第２引数：表示された事を確認する「文字列」または「画像の要素識別子」
+第３引数：タイムアウト値（秒）※省略可</t>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ショウリャク</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「文字列」または「画像の要素識別子」</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -4705,12 +4840,12 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:K116"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="B16" sqref="B16"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="H93" sqref="H93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4828,7 +4963,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4927,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4936,10 +5071,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -4948,7 +5083,7 @@
         <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>0</v>
@@ -4960,7 +5095,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4969,10 +5104,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>30</v>
@@ -4981,7 +5116,7 @@
         <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H9" s="4" t="s">
         <v>0</v>
@@ -4993,7 +5128,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5002,10 +5137,10 @@
         <v>8</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -5014,10 +5149,10 @@
         <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>0</v>
@@ -5026,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5035,10 +5170,10 @@
         <v>9</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>103</v>
@@ -5047,7 +5182,7 @@
         <v>102</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>0</v>
@@ -5059,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5068,10 +5203,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>453</v>
+        <v>465</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
@@ -5080,10 +5215,10 @@
         <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>0</v>
@@ -5092,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5125,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5158,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5383,7 +5518,7 @@
         <v>76</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="22" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5416,7 +5551,7 @@
         <v>0</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="23" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5449,7 +5584,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="24" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5482,7 +5617,7 @@
         <v>0</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5548,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5610,7 +5745,7 @@
         <v>0</v>
       </c>
       <c r="K28" s="17" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5643,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5676,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5709,7 +5844,7 @@
         <v>0</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5721,7 +5856,7 @@
         <v>58</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>30</v>
@@ -5754,7 +5889,7 @@
         <v>180</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>30</v>
@@ -5787,7 +5922,7 @@
         <v>183</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>30</v>
@@ -5820,7 +5955,7 @@
         <v>184</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>30</v>
@@ -5850,7 +5985,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>215</v>
@@ -5874,7 +6009,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="37" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5905,7 +6040,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="38" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5938,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -5971,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6004,7 +6139,7 @@
         <v>0</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6016,7 +6151,7 @@
         <v>283</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>30</v>
@@ -6070,7 +6205,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="43" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6103,7 +6238,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="44" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6165,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="46" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6207,10 +6342,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>30</v>
@@ -6231,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6240,10 +6375,10 @@
         <v>46</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>30</v>
@@ -6264,7 +6399,7 @@
         <v>0</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6273,10 +6408,10 @@
         <v>47</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>30</v>
@@ -6297,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="50" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6306,10 +6441,10 @@
         <v>48</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>30</v>
@@ -6330,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="51" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6363,7 +6498,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="52" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6462,7 +6597,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="55" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6495,7 +6630,7 @@
         <v>0</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="56" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6526,7 +6661,7 @@
         <v>0</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="57" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6584,7 +6719,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="59" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6659,10 +6794,10 @@
         <v>59</v>
       </c>
       <c r="C61" s="20" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>30</v>
@@ -6674,16 +6809,16 @@
         <v>158</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J61" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="62" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6692,10 +6827,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>30</v>
@@ -6707,7 +6842,7 @@
         <v>158</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="I62" s="4" t="s">
         <v>0</v>
@@ -6716,7 +6851,7 @@
         <v>0</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="63" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6815,7 +6950,7 @@
         <v>0</v>
       </c>
       <c r="K65" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="66" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6848,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="67" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6914,7 +7049,7 @@
         <v>0</v>
       </c>
       <c r="K68" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="69" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -6978,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7077,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="K73" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="74" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7110,7 +7245,7 @@
         <v>0</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="2:11" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.4">
@@ -7143,7 +7278,7 @@
         <v>0</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="76" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7205,7 +7340,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="78" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7265,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="K79" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7274,10 +7409,10 @@
         <v>78</v>
       </c>
       <c r="C80" s="20" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>289</v>
@@ -7286,19 +7421,19 @@
         <v>29</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K80" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="81" spans="2:11" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.4">
@@ -7307,10 +7442,10 @@
         <v>79</v>
       </c>
       <c r="C81" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>289</v>
@@ -7328,10 +7463,10 @@
         <v>294</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K81" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7340,10 +7475,10 @@
         <v>80</v>
       </c>
       <c r="C82" s="20" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>289</v>
@@ -7361,10 +7496,10 @@
         <v>0</v>
       </c>
       <c r="J82" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K82" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="83" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7373,10 +7508,10 @@
         <v>81</v>
       </c>
       <c r="C83" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>289</v>
@@ -7385,19 +7520,19 @@
         <v>29</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H83" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="I83" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="I83" s="2" t="s">
-        <v>329</v>
-      </c>
       <c r="J83" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K83" s="5" t="s">
         <v>309</v>
-      </c>
-      <c r="K83" s="5" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="84" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7406,10 +7541,10 @@
         <v>82</v>
       </c>
       <c r="C84" s="20" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>289</v>
@@ -7427,10 +7562,10 @@
         <v>0</v>
       </c>
       <c r="J84" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K84" s="5" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="85" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7439,10 +7574,10 @@
         <v>83</v>
       </c>
       <c r="C85" s="20" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>289</v>
@@ -7454,14 +7589,14 @@
         <v>290</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K85" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7470,10 +7605,10 @@
         <v>84</v>
       </c>
       <c r="C86" s="20" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>289</v>
@@ -7485,14 +7620,14 @@
         <v>290</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K86" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="87" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7501,10 +7636,10 @@
         <v>85</v>
       </c>
       <c r="C87" s="20" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>289</v>
@@ -7513,13 +7648,13 @@
         <v>29</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="88" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7528,10 +7663,10 @@
         <v>86</v>
       </c>
       <c r="C88" s="20" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>289</v>
@@ -7540,17 +7675,17 @@
         <v>29</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I88" s="2" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="J88" s="2"/>
       <c r="K88" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="18.75" x14ac:dyDescent="0.4">
@@ -7578,7 +7713,7 @@
     </row>
     <row r="90" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="3">
-        <f t="shared" ref="B90:B116" si="2">ROW()-2</f>
+        <f t="shared" ref="B90:B123" si="2">ROW()-2</f>
         <v>88</v>
       </c>
       <c r="C90" s="19" t="s">
@@ -7606,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="91" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7639,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="92" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7693,8 +7828,8 @@
       <c r="G93" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H93" s="4" t="s">
-        <v>0</v>
+      <c r="H93" s="2" t="s">
+        <v>477</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>0</v>
@@ -7702,8 +7837,8 @@
       <c r="J93" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="K93" s="2" t="s">
-        <v>297</v>
+      <c r="K93" s="5" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="94" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7712,7 +7847,7 @@
         <v>92</v>
       </c>
       <c r="C94" s="19" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>244</v>
@@ -7746,7 +7881,7 @@
         <v>21</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>30</v>
@@ -7774,19 +7909,19 @@
         <v>94</v>
       </c>
       <c r="C96" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D96" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="H96" s="4" t="s">
         <v>0</v>
@@ -7829,7 +7964,7 @@
         <v>0</v>
       </c>
       <c r="K97" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="98" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7841,7 +7976,7 @@
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>30</v>
@@ -7862,7 +7997,7 @@
         <v>0</v>
       </c>
       <c r="K98" s="2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="99" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -7940,7 +8075,7 @@
         <v>11</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>30</v>
@@ -7955,13 +8090,13 @@
         <v>3</v>
       </c>
       <c r="I101" s="2" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J101" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K101" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="102" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -8001,10 +8136,10 @@
         <v>101</v>
       </c>
       <c r="C103" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="D103" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>30</v>
@@ -8016,7 +8151,7 @@
         <v>6</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>0</v>
@@ -8025,7 +8160,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="104" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -8034,10 +8169,10 @@
         <v>102</v>
       </c>
       <c r="C104" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="D104" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>30</v>
@@ -8049,7 +8184,7 @@
         <v>6</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>0</v>
@@ -8083,13 +8218,13 @@
         <v>3</v>
       </c>
       <c r="I105" s="2" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>0</v>
       </c>
       <c r="K105" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="106" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -8098,10 +8233,10 @@
         <v>104</v>
       </c>
       <c r="C106" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D106" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>30</v>
@@ -8129,10 +8264,10 @@
         <v>105</v>
       </c>
       <c r="C107" s="19" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>30</v>
@@ -8153,7 +8288,7 @@
         <v>0</v>
       </c>
       <c r="K107" s="2" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -8174,7 +8309,7 @@
         <v>29</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>3</v>
@@ -8255,19 +8390,19 @@
         <v>109</v>
       </c>
       <c r="C111" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="E111" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G111" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F111" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" s="2" t="s">
-        <v>322</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>22</v>
@@ -8279,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="K111" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="112" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -8312,7 +8447,7 @@
         <v>0</v>
       </c>
       <c r="K112" s="2" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="113" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -8321,10 +8456,10 @@
         <v>111</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>30</v>
@@ -8352,10 +8487,10 @@
         <v>112</v>
       </c>
       <c r="C114" s="19" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>30</v>
@@ -8364,7 +8499,7 @@
         <v>29</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="H114" s="4" t="s">
         <v>0</v>
@@ -8383,19 +8518,19 @@
         <v>113</v>
       </c>
       <c r="C115" s="19" t="s">
+        <v>448</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>22</v>
@@ -8414,10 +8549,10 @@
         <v>114</v>
       </c>
       <c r="C116" s="19" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>30</v>
@@ -8429,7 +8564,7 @@
         <v>6</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>0</v>
@@ -8438,6 +8573,209 @@
         <v>0</v>
       </c>
       <c r="K116" s="2"/>
+    </row>
+    <row r="117" spans="2:11" ht="18.75" x14ac:dyDescent="0.4">
+      <c r="B117" s="8">
+        <f>ROW()-2</f>
+        <v>115</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G117" s="7"/>
+      <c r="H117" s="7"/>
+      <c r="I117" s="7"/>
+      <c r="J117" s="7"/>
+      <c r="K117" s="6"/>
+    </row>
+    <row r="118" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B118" s="3">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="C118" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K118" s="5"/>
+    </row>
+    <row r="119" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B119" s="3">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="C119" s="19" t="s">
+        <v>454</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K119" s="5"/>
+    </row>
+    <row r="120" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B120" s="3">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="C120" s="19" t="s">
+        <v>456</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B121" s="3">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="C121" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B122" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="C122" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K122" s="5"/>
+    </row>
+    <row r="123" spans="2:11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B123" s="3">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="C123" s="19" t="s">
+        <v>473</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="H123" s="2"/>
+      <c r="I123" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K123" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
